--- a/docs/sw/宏定义统计-fgn.xlsx
+++ b/docs/sw/宏定义统计-fgn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunyatsen-my.sharepoint.cn/personal/fenggn3_ms_sysu_edu_cn/Documents/学习/大四上/CPC/决赛/CPC2018-GROMACS/docs/sw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - 中山大学\学习\大四上\CPC\决赛\CPC2018-GROMACS\docs\sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{A3AD8E3C-466C-41A4-9C91-411C28E69C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E4524E46-C71B-4994-A176-5CD194A8AF19}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A3AD8E3C-466C-41A4-9C91-411C28E69C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DA3A66BE-B3AC-4C57-9308-8EB3CC2C0B53}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{25188BE7-736C-4B86-A037-38EE6EC7B408}"/>
   </bookViews>
@@ -113,83 +113,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LJ_CUT</t>
+  </si>
+  <si>
+    <t>LJ_EWALD_COMB_GEOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJ_EWALD_COMB_LB</t>
+  </si>
+  <si>
+    <t>FI_STRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义内/外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBNXN_CI_SHIFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_STRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由控制double控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDW_CUTOFF_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由其他三个从核定义而生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double特别注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由复杂定义运算得来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在从核内定义，可能可以优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT_PAIRS</t>
+  </si>
+  <si>
+    <t>调试用，未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NBNXN_AVOID_SING_R2_INC</t>
-  </si>
-  <si>
-    <t>LJ_CUT</t>
-  </si>
-  <si>
-    <t>LJ_EWALD_COMB_GEOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LJ_EWALD_COMB_LB</t>
-  </si>
-  <si>
-    <t>FI_STRIDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CENTRAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义内/外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NBNXN_CI_SHIFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X_STRIDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由控制double控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDW_CUTOFF_CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由其他三个从核定义而生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double特别注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由复杂定义运算得来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在从核内定义，可能可以优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT_PAIRS</t>
-  </si>
-  <si>
-    <t>调试用，未定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +558,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -594,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,15 +654,15 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,23 +670,23 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -693,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,48 +702,48 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,32 +751,32 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,21 +795,21 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,10 +817,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,10 +828,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,18 +850,18 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
